--- a/AnalysisOutputFolder/20250520_Order_Development_Output.xlsx
+++ b/AnalysisOutputFolder/20250520_Order_Development_Output.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mckinsey-my.sharepoint.com/personal/tony_yang_mckinsey_com/Documents/Documents/Python/AnalysisOutputFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5059D2B1D320D46ECFBB2911595ED87657CF3C4E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831B9246-468F-48A8-95B8-0C3FC38517F6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_5059D2B1D320D46ECFBB2911595ED87657CF3C4E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F76FA17-C378-4007-9485-66FC6535F70E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9345" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$HZ$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -11431,8 +11434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HZ2347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D111" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11444,7 +11447,8 @@
     <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.21875" customWidth="1"/>
+    <col min="9" max="10" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:234" x14ac:dyDescent="0.3">
